--- a/public/sheets/ex-mhs.xlsx
+++ b/public/sheets/ex-mhs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\sistorha\public\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C46EFBB-7AF9-4A26-8493-42A3D1132A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980C070D-D568-435A-967E-E2D319FF47E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{9546A9C4-5F83-4C6A-84A7-F469CB5B53E8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="180">
   <si>
     <t>Bandung</t>
   </si>
@@ -39,36 +39,6 @@
     <t>Jl. Bandung</t>
   </si>
   <si>
-    <t>089237812378</t>
-  </si>
-  <si>
-    <t>089237812379</t>
-  </si>
-  <si>
-    <t>089237812380</t>
-  </si>
-  <si>
-    <t>089237812381</t>
-  </si>
-  <si>
-    <t>089237812382</t>
-  </si>
-  <si>
-    <t>089237812383</t>
-  </si>
-  <si>
-    <t>089237812384</t>
-  </si>
-  <si>
-    <t>089237812385</t>
-  </si>
-  <si>
-    <t>089237812386</t>
-  </si>
-  <si>
-    <t>089237812387</t>
-  </si>
-  <si>
     <t>2000-10-01</t>
   </si>
   <si>
@@ -138,9 +108,6 @@
     <t>D111911017</t>
   </si>
   <si>
-    <t>Asep Koswara</t>
-  </si>
-  <si>
     <t>D111911031</t>
   </si>
   <si>
@@ -234,9 +201,6 @@
     <t>nicky@gmail.com</t>
   </si>
   <si>
-    <t>089621771309</t>
-  </si>
-  <si>
     <t>Islam</t>
   </si>
   <si>
@@ -247,13 +211,373 @@
   </si>
   <si>
     <t>Perempuan</t>
+  </si>
+  <si>
+    <t>D111911007</t>
+  </si>
+  <si>
+    <t>D111911008</t>
+  </si>
+  <si>
+    <t>D111911015</t>
+  </si>
+  <si>
+    <t>D111911069</t>
+  </si>
+  <si>
+    <t>D111911070</t>
+  </si>
+  <si>
+    <t>D111911072</t>
+  </si>
+  <si>
+    <t>D111911082</t>
+  </si>
+  <si>
+    <t>D111911083</t>
+  </si>
+  <si>
+    <t>D111911092</t>
+  </si>
+  <si>
+    <t>D111911093</t>
+  </si>
+  <si>
+    <t>D111911094</t>
+  </si>
+  <si>
+    <t>D111911095</t>
+  </si>
+  <si>
+    <t>D111911102</t>
+  </si>
+  <si>
+    <t>D111911104</t>
+  </si>
+  <si>
+    <t>3217023989012401</t>
+  </si>
+  <si>
+    <t>3217023989012402</t>
+  </si>
+  <si>
+    <t>3217023989012403</t>
+  </si>
+  <si>
+    <t>3217023989012404</t>
+  </si>
+  <si>
+    <t>3217023989012405</t>
+  </si>
+  <si>
+    <t>3217023989012406</t>
+  </si>
+  <si>
+    <t>3217023989012407</t>
+  </si>
+  <si>
+    <t>3217023989012408</t>
+  </si>
+  <si>
+    <t>3217023989012409</t>
+  </si>
+  <si>
+    <t>3217023989012410</t>
+  </si>
+  <si>
+    <t>3217023989012411</t>
+  </si>
+  <si>
+    <t>3217023989012412</t>
+  </si>
+  <si>
+    <t>3217023989012413</t>
+  </si>
+  <si>
+    <t>3217023989012414</t>
+  </si>
+  <si>
+    <t>Adniansyah</t>
+  </si>
+  <si>
+    <t>Agung Himawan</t>
+  </si>
+  <si>
+    <t>Aqmal Mulqy Bagja Laksana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asep Koswara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padel Muhammad Alfarizzy </t>
+  </si>
+  <si>
+    <t>Putri Sawitri</t>
+  </si>
+  <si>
+    <t>Randi Prakoso Wicaksono</t>
+  </si>
+  <si>
+    <t>Risti Pradwi Ningsih</t>
+  </si>
+  <si>
+    <t>Rizal Faqih Ramadhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasiroh </t>
+  </si>
+  <si>
+    <t>Taufik Nur Hidayat</t>
+  </si>
+  <si>
+    <t>Taufik Ramdhani</t>
+  </si>
+  <si>
+    <t>Trisna Budi Wicaksana</t>
+  </si>
+  <si>
+    <t>Zikri Alamsyah</t>
+  </si>
+  <si>
+    <t>Ziyad El Berro</t>
+  </si>
+  <si>
+    <t>2000-10-12</t>
+  </si>
+  <si>
+    <t>2000-10-13</t>
+  </si>
+  <si>
+    <t>2000-10-14</t>
+  </si>
+  <si>
+    <t>2000-10-15</t>
+  </si>
+  <si>
+    <t>2000-10-16</t>
+  </si>
+  <si>
+    <t>2000-10-17</t>
+  </si>
+  <si>
+    <t>2000-10-18</t>
+  </si>
+  <si>
+    <t>2000-10-19</t>
+  </si>
+  <si>
+    <t>2000-10-20</t>
+  </si>
+  <si>
+    <t>2000-10-21</t>
+  </si>
+  <si>
+    <t>2000-10-22</t>
+  </si>
+  <si>
+    <t>2000-10-23</t>
+  </si>
+  <si>
+    <t>2000-10-24</t>
+  </si>
+  <si>
+    <t>2000-10-25</t>
+  </si>
+  <si>
+    <t>adniansyah@gmail.com</t>
+  </si>
+  <si>
+    <t>agung@gmail.com</t>
+  </si>
+  <si>
+    <t>aqmal@gmail.com</t>
+  </si>
+  <si>
+    <t>padel@gmail.com</t>
+  </si>
+  <si>
+    <t>putri@gmail.com</t>
+  </si>
+  <si>
+    <t>randi@gmail.com</t>
+  </si>
+  <si>
+    <t>risti@gmail.com</t>
+  </si>
+  <si>
+    <t>rizal@gmail.com</t>
+  </si>
+  <si>
+    <t>tasiroh@gmail.com</t>
+  </si>
+  <si>
+    <t>taufik@gmail.com</t>
+  </si>
+  <si>
+    <t>taufikram@gmail.com</t>
+  </si>
+  <si>
+    <t>trisna@gmail.com</t>
+  </si>
+  <si>
+    <t>zikri@gmail.com</t>
+  </si>
+  <si>
+    <t>ziyad@gmail.com</t>
+  </si>
+  <si>
+    <t>D112011001</t>
+  </si>
+  <si>
+    <t>Agus Setiawan</t>
+  </si>
+  <si>
+    <t>D112011002</t>
+  </si>
+  <si>
+    <t>Ahmad Febri Yanto</t>
+  </si>
+  <si>
+    <t>D112011003</t>
+  </si>
+  <si>
+    <t>Aini Hadijah</t>
+  </si>
+  <si>
+    <t>D112011004</t>
+  </si>
+  <si>
+    <t>Aldi Himawan</t>
+  </si>
+  <si>
+    <t>D112011005</t>
+  </si>
+  <si>
+    <t>Aldi Kristiawan Febianto</t>
+  </si>
+  <si>
+    <t>D112011006</t>
+  </si>
+  <si>
+    <t>Ali Ihsan Kamil</t>
+  </si>
+  <si>
+    <t>D112011007</t>
+  </si>
+  <si>
+    <t>Arid Zenal Muchafidin</t>
+  </si>
+  <si>
+    <t>D112011008</t>
+  </si>
+  <si>
+    <t>Arif Hidayat</t>
+  </si>
+  <si>
+    <t>D112011009</t>
+  </si>
+  <si>
+    <t>Arya Rizki Pratama</t>
+  </si>
+  <si>
+    <t>D112011010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonita Puspa Nagari </t>
+  </si>
+  <si>
+    <t>3217023989012415</t>
+  </si>
+  <si>
+    <t>3217023989012416</t>
+  </si>
+  <si>
+    <t>3217023989012417</t>
+  </si>
+  <si>
+    <t>3217023989012418</t>
+  </si>
+  <si>
+    <t>3217023989012419</t>
+  </si>
+  <si>
+    <t>3217023989012420</t>
+  </si>
+  <si>
+    <t>3217023989012421</t>
+  </si>
+  <si>
+    <t>3217023989012422</t>
+  </si>
+  <si>
+    <t>3217023989012423</t>
+  </si>
+  <si>
+    <t>2000-10-26</t>
+  </si>
+  <si>
+    <t>2000-10-27</t>
+  </si>
+  <si>
+    <t>2000-10-28</t>
+  </si>
+  <si>
+    <t>2000-10-29</t>
+  </si>
+  <si>
+    <t>2000-10-30</t>
+  </si>
+  <si>
+    <t>2000-10-31</t>
+  </si>
+  <si>
+    <t>2000-11-01</t>
+  </si>
+  <si>
+    <t>2000-11-02</t>
+  </si>
+  <si>
+    <t>2000-11-03</t>
+  </si>
+  <si>
+    <t>2000-11-04</t>
+  </si>
+  <si>
+    <t>aguss@gmail.com</t>
+  </si>
+  <si>
+    <t>ahmadfy@gmail.com</t>
+  </si>
+  <si>
+    <t>ainih@gmail.com</t>
+  </si>
+  <si>
+    <t>aldikf@gmail.com</t>
+  </si>
+  <si>
+    <t>alihsan@gmail.com</t>
+  </si>
+  <si>
+    <t>aldihim@gmail.com</t>
+  </si>
+  <si>
+    <t>aridzmc@gmail.com</t>
+  </si>
+  <si>
+    <t>arifhid@gmail.com</t>
+  </si>
+  <si>
+    <t>aryarp@gmail.com</t>
+  </si>
+  <si>
+    <t>bonitapn@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +617,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,15 +662,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -364,10 +699,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 3" xfId="2" xr:uid="{B24C14CD-6F24-43F2-93FA-682E801D9C9D}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{CB8CA34B-B2F9-40CE-AD29-ED54F34911E9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,6 +732,251 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F70E08B-F79B-4C0C-A06D-6929C9FAD2C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11353800" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Keterangan:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>row[0]              |</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>row[1]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                  |</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>row[2]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                      |</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>row[3]     |row[4]     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>|row[5]|row[6]                     |row[7]                 |row[8]    |row[9]|row[10]|row[11]|row[12]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NIM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                  |</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NIK	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                |Nama		                          |TP_L         |TG_L	         |Agama| Email	|No_Hp	   |Alamat   |pd_id  |Periode|Status   |Gender</a:t>
+          </a:r>
+          <a:endParaRPr lang="id-ID">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D1C5FD-8637-4C3E-8DA1-E8C50D539031}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,8 +1290,8 @@
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
@@ -702,455 +1299,1440 @@
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="6">
+        <v>89237812377</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="11">
+        <v>10</v>
+      </c>
+      <c r="K1" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="6">
+        <v>89237812378</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
+        <v>10</v>
+      </c>
+      <c r="K2" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="6">
+        <v>89237812379</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="6">
+        <v>89621771309</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="6">
+        <v>89237812381</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="6">
+        <v>89237812382</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="6">
+        <v>89237812383</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="6">
+        <v>89237812384</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="6">
+        <v>89237812385</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="6">
+        <v>89237812386</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="6">
+        <v>89237812387</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="6">
+        <v>89237812388</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="6">
+        <v>89237812389</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>10</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="B14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="6">
+        <v>89237812390</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <v>10</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="6">
+        <v>89237812391</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="6">
+        <v>89237812392</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="6">
+        <v>89237812393</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="6">
+        <v>89237812394</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="6">
+        <v>89237812395</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="12">
-        <v>10</v>
-      </c>
-      <c r="K1" s="8">
+      <c r="B20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="6">
+        <v>89237812396</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7">
         <v>2019</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="B21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="6">
+        <v>89237812397</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11">
+        <v>10</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>10</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="B22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="6">
+        <v>89237812398</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7">
         <v>2019</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="L22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12">
-        <v>10</v>
-      </c>
-      <c r="K3" s="8">
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="6">
+        <v>89237812399</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7">
         <v>2019</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="L23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="6">
+        <v>89237812400</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="11">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="6">
+        <v>89237812401</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="6">
+        <v>89237812402</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="11">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="6">
+        <v>89237812403</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="11">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="6">
+        <v>89237812404</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="11">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>10</v>
-      </c>
-      <c r="K4" s="8">
-        <v>2019</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12">
-        <v>10</v>
-      </c>
-      <c r="K5" s="8">
-        <v>2019</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
-        <v>10</v>
-      </c>
-      <c r="K6" s="8">
-        <v>2019</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12">
-        <v>10</v>
-      </c>
-      <c r="K7" s="8">
-        <v>2019</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12">
-        <v>10</v>
-      </c>
-      <c r="K8" s="8">
-        <v>2019</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12">
-        <v>10</v>
-      </c>
-      <c r="K9" s="8">
-        <v>2019</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12">
-        <v>10</v>
-      </c>
-      <c r="K10" s="8">
-        <v>2019</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12">
-        <v>10</v>
-      </c>
-      <c r="K11" s="8">
-        <v>2019</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>71</v>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="6">
+        <v>89237812405</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="11">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="6">
+        <v>89237812406</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="11">
+        <v>10</v>
+      </c>
+      <c r="K30" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="6">
+        <v>89237812407</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="11">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="6">
+        <v>89237812408</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="11">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="6">
+        <v>89237812409</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="11">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="6">
+        <v>89237812410</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="11">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="6">
+        <v>89237812411</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="11">
+        <v>10</v>
+      </c>
+      <c r="K35" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1167,8 +2749,35 @@
     <hyperlink ref="G9" r:id="rId9" xr:uid="{D0E58414-B9EF-4D1F-8720-3ACF4BE546E0}"/>
     <hyperlink ref="G10" r:id="rId10" xr:uid="{70743C29-36A4-4F63-B226-48C35E8720A1}"/>
     <hyperlink ref="G11" r:id="rId11" xr:uid="{6CD03AE9-095A-4A4F-9D13-9883C8411075}"/>
+    <hyperlink ref="G12:G25" r:id="rId12" display="nicky@gmail.com" xr:uid="{A811E83E-155E-4CD9-8907-F665059E83E1}"/>
+    <hyperlink ref="G12" r:id="rId13" xr:uid="{738CA36E-B56E-4A8B-A513-2C7847BC0EAF}"/>
+    <hyperlink ref="G13" r:id="rId14" xr:uid="{F521659F-12B6-4155-88E4-FAAB0C273817}"/>
+    <hyperlink ref="G14" r:id="rId15" xr:uid="{F17F8301-C077-424A-A688-35C61DD12706}"/>
+    <hyperlink ref="G15" r:id="rId16" xr:uid="{0BA09007-ED13-4710-97D0-322805FC9CB4}"/>
+    <hyperlink ref="G16" r:id="rId17" xr:uid="{AD078AF6-5DDE-4F9A-9751-2E393A373227}"/>
+    <hyperlink ref="G17" r:id="rId18" xr:uid="{FE12612D-FB8E-42C2-89A5-D79D114A25C4}"/>
+    <hyperlink ref="G18" r:id="rId19" xr:uid="{9AFD25E4-24CC-4ECF-B20B-665EE22DAE3F}"/>
+    <hyperlink ref="G19" r:id="rId20" xr:uid="{9ECF8E95-D511-42AD-88B6-39E1C36E1C2D}"/>
+    <hyperlink ref="G20" r:id="rId21" xr:uid="{30BE2173-5220-4F71-8911-7EC8EC9EC389}"/>
+    <hyperlink ref="G21" r:id="rId22" xr:uid="{9277C6B2-25ED-4FC1-BBF3-BC711088C924}"/>
+    <hyperlink ref="G22" r:id="rId23" xr:uid="{6DDB816C-63A2-4AC7-B76D-040F0E848FFC}"/>
+    <hyperlink ref="G23" r:id="rId24" xr:uid="{CBBE470A-F9B1-43E6-896C-2641D790889D}"/>
+    <hyperlink ref="G24" r:id="rId25" xr:uid="{DAC1516E-76AC-4FA8-965E-74D23C0A3D52}"/>
+    <hyperlink ref="G25" r:id="rId26" xr:uid="{EEADC7E3-C25A-466D-ADEF-00BAA39960C1}"/>
+    <hyperlink ref="G26:G35" r:id="rId27" display="nicky@gmail.com" xr:uid="{629DF51D-9EF6-41F6-A474-6EE8B07A423D}"/>
+    <hyperlink ref="G26" r:id="rId28" xr:uid="{8442B39D-E2A8-45FF-951B-15780C16288F}"/>
+    <hyperlink ref="G27" r:id="rId29" xr:uid="{C1F6E717-A108-4D5A-A9AA-3F6BBAF9F268}"/>
+    <hyperlink ref="G28" r:id="rId30" xr:uid="{A7045693-832F-47E2-AC66-0C992B0F228A}"/>
+    <hyperlink ref="G29" r:id="rId31" xr:uid="{EF26304D-D2C1-4E9C-B337-24D0587A6C5F}"/>
+    <hyperlink ref="G30" r:id="rId32" xr:uid="{C59CE709-E62B-4E9B-8160-ADADB6720D99}"/>
+    <hyperlink ref="G31" r:id="rId33" xr:uid="{7939281D-A0FE-4480-A31B-A63754BEBC47}"/>
+    <hyperlink ref="G32" r:id="rId34" xr:uid="{A0EAD22D-F4C3-48B5-BB05-F2C4E269A106}"/>
+    <hyperlink ref="G33" r:id="rId35" xr:uid="{C9DCFF1E-FB2E-4CAF-8E65-037AF2B1231D}"/>
+    <hyperlink ref="G34" r:id="rId36" xr:uid="{1EDAAFCC-11E9-48B1-AF0B-70F160F22CDF}"/>
+    <hyperlink ref="G35" r:id="rId37" xr:uid="{D607C8C0-2001-4E61-AE08-917785BED424}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
+  <drawing r:id="rId39"/>
 </worksheet>
 </file>
--- a/public/sheets/ex-mhs.xlsx
+++ b/public/sheets/ex-mhs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\sistorha\public\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980C070D-D568-435A-967E-E2D319FF47E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6829B08-3803-4FDB-A85A-C7042BF11D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{9546A9C4-5F83-4C6A-84A7-F469CB5B53E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9546A9C4-5F83-4C6A-84A7-F469CB5B53E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="193">
   <si>
     <t>Bandung</t>
   </si>
@@ -571,6 +571,45 @@
   </si>
   <si>
     <t>bonitapn@gmail.com</t>
+  </si>
+  <si>
+    <t>nim</t>
+  </si>
+  <si>
+    <t>nik</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>tp_l</t>
+  </si>
+  <si>
+    <t>tg_l</t>
+  </si>
+  <si>
+    <t>agama</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>no_hp</t>
+  </si>
+  <si>
+    <t>alamat</t>
+  </si>
+  <si>
+    <t>pd_id</t>
+  </si>
+  <si>
+    <t>periode</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -638,7 +677,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -661,6 +700,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -668,7 +720,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -714,6 +766,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -740,14 +793,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -762,8 +815,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="11353800" cy="666750"/>
+          <a:off x="0" y="600075"/>
+          <a:ext cx="11725275" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D1C5FD-8637-4C3E-8DA1-E8C50D539031}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,81 +1342,81 @@
     <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="6">
-        <v>89237812377</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="11">
-        <v>10</v>
-      </c>
-      <c r="K1" s="7">
-        <v>2019</v>
+        <v>185</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" s="6">
-        <v>89237812378</v>
+        <v>89237812377</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -1383,28 +1436,28 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="6">
-        <v>89237812379</v>
+        <v>89237812378</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>1</v>
@@ -1421,32 +1474,31 @@
       <c r="M3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="H4" s="6">
-        <v>89621771309</v>
+        <v>89237812379</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>1</v>
@@ -1463,31 +1515,32 @@
       <c r="M4" s="10" t="s">
         <v>58</v>
       </c>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="6">
-        <v>89237812381</v>
+        <v>89621771309</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>1</v>
@@ -1507,28 +1560,28 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="6">
-        <v>89237812382</v>
+        <v>89237812381</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>1</v>
@@ -1543,33 +1596,33 @@
         <v>57</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="6">
-        <v>89237812383</v>
+        <v>89237812382</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>1</v>
@@ -1584,33 +1637,33 @@
         <v>57</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="6">
-        <v>89237812384</v>
+        <v>89237812383</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>1</v>
@@ -1625,33 +1678,33 @@
         <v>57</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="6">
-        <v>89237812385</v>
+        <v>89237812384</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>1</v>
@@ -1666,33 +1719,33 @@
         <v>57</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="6">
-        <v>89237812386</v>
+        <v>89237812385</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>1</v>
@@ -1712,28 +1765,28 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="6">
-        <v>89237812387</v>
+        <v>89237812386</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>1</v>
@@ -1753,28 +1806,28 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="6">
-        <v>89237812388</v>
+        <v>89237812387</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>1</v>
@@ -1794,28 +1847,28 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="6">
-        <v>89237812389</v>
+        <v>89237812388</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>1</v>
@@ -1835,28 +1888,28 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="6">
-        <v>89237812390</v>
+        <v>89237812389</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>1</v>
@@ -1871,33 +1924,33 @@
         <v>57</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="H15" s="6">
-        <v>89237812391</v>
+        <v>89237812390</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>1</v>
@@ -1912,33 +1965,33 @@
         <v>57</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H16" s="6">
-        <v>89237812392</v>
+        <v>89237812391</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>1</v>
@@ -1953,33 +2006,33 @@
         <v>57</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H17" s="6">
-        <v>89237812393</v>
+        <v>89237812392</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>1</v>
@@ -1994,33 +2047,33 @@
         <v>57</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H18" s="6">
-        <v>89237812394</v>
+        <v>89237812393</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>1</v>
@@ -2035,33 +2088,33 @@
         <v>57</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" s="6">
-        <v>89237812395</v>
+        <v>89237812394</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>1</v>
@@ -2076,33 +2129,33 @@
         <v>57</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" s="6">
-        <v>89237812396</v>
+        <v>89237812395</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>1</v>
@@ -2117,33 +2170,33 @@
         <v>57</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H21" s="6">
-        <v>89237812397</v>
+        <v>89237812396</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>1</v>
@@ -2158,33 +2211,33 @@
         <v>57</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H22" s="6">
-        <v>89237812398</v>
+        <v>89237812397</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>1</v>
@@ -2203,29 +2256,29 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>71</v>
+      <c r="A23" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>100</v>
+        <v>84</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23" s="6">
-        <v>89237812399</v>
+        <v>89237812398</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>1</v>
@@ -2245,28 +2298,28 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H24" s="6">
-        <v>89237812400</v>
+        <v>89237812399</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>1</v>
@@ -2286,28 +2339,28 @@
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" s="6">
-        <v>89237812401</v>
+        <v>89237812400</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>1</v>
@@ -2316,7 +2369,7 @@
         <v>10</v>
       </c>
       <c r="K25" s="7">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>57</v>
@@ -2326,29 +2379,29 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>131</v>
+      <c r="A26" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>132</v>
+        <v>87</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="H26" s="6">
-        <v>89237812402</v>
+        <v>89237812401</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>1</v>
@@ -2368,28 +2421,28 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H27" s="6">
-        <v>89237812403</v>
+        <v>89237812402</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>1</v>
@@ -2409,28 +2462,28 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H28" s="6">
-        <v>89237812404</v>
+        <v>89237812403</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>1</v>
@@ -2445,33 +2498,33 @@
         <v>57</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>137</v>
+      <c r="A29" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>138</v>
+        <v>153</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H29" s="6">
-        <v>89237812405</v>
+        <v>89237812404</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>1</v>
@@ -2486,33 +2539,33 @@
         <v>57</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>139</v>
+      <c r="A30" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>140</v>
+        <v>154</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H30" s="6">
-        <v>89237812406</v>
+        <v>89237812405</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>1</v>
@@ -2532,28 +2585,28 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H31" s="6">
-        <v>89237812407</v>
+        <v>89237812406</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>1</v>
@@ -2573,28 +2626,28 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H32" s="6">
-        <v>89237812408</v>
+        <v>89237812407</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>1</v>
@@ -2614,28 +2667,28 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H33" s="6">
-        <v>89237812409</v>
+        <v>89237812408</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>1</v>
@@ -2655,28 +2708,28 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H34" s="6">
-        <v>89237812410</v>
+        <v>89237812409</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>1</v>
@@ -2696,28 +2749,28 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H35" s="6">
-        <v>89237812411</v>
+        <v>89237812410</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>1</v>
@@ -2732,49 +2785,90 @@
         <v>57</v>
       </c>
       <c r="M35" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36" s="6">
+        <v>89237812411</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="11">
+        <v>10</v>
+      </c>
+      <c r="K36" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M36" s="10" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" xr:uid="{2A918F17-BA7B-4801-8654-5F4C0A9CA528}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{9AC25E57-4924-4438-AF60-CBB5FAACDB9F}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{33FB18DF-3B5D-420B-BD92-B8CA2C642CAD}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{F18A8A4E-AD0C-49AC-8BDF-3F0D1F9D0336}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{B371CF4A-AE97-4FAE-91F9-3C829CCBCF0F}"/>
-    <hyperlink ref="G6" r:id="rId6" xr:uid="{34F7A559-0E0E-4966-9B8D-1331243B2B58}"/>
-    <hyperlink ref="G7" r:id="rId7" xr:uid="{B3BC76A7-E850-4629-B612-A59A628B8905}"/>
-    <hyperlink ref="G8" r:id="rId8" xr:uid="{33498D64-993E-4D4B-850A-19A55631A006}"/>
-    <hyperlink ref="G9" r:id="rId9" xr:uid="{D0E58414-B9EF-4D1F-8720-3ACF4BE546E0}"/>
-    <hyperlink ref="G10" r:id="rId10" xr:uid="{70743C29-36A4-4F63-B226-48C35E8720A1}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{6CD03AE9-095A-4A4F-9D13-9883C8411075}"/>
-    <hyperlink ref="G12:G25" r:id="rId12" display="nicky@gmail.com" xr:uid="{A811E83E-155E-4CD9-8907-F665059E83E1}"/>
-    <hyperlink ref="G12" r:id="rId13" xr:uid="{738CA36E-B56E-4A8B-A513-2C7847BC0EAF}"/>
-    <hyperlink ref="G13" r:id="rId14" xr:uid="{F521659F-12B6-4155-88E4-FAAB0C273817}"/>
-    <hyperlink ref="G14" r:id="rId15" xr:uid="{F17F8301-C077-424A-A688-35C61DD12706}"/>
-    <hyperlink ref="G15" r:id="rId16" xr:uid="{0BA09007-ED13-4710-97D0-322805FC9CB4}"/>
-    <hyperlink ref="G16" r:id="rId17" xr:uid="{AD078AF6-5DDE-4F9A-9751-2E393A373227}"/>
-    <hyperlink ref="G17" r:id="rId18" xr:uid="{FE12612D-FB8E-42C2-89A5-D79D114A25C4}"/>
-    <hyperlink ref="G18" r:id="rId19" xr:uid="{9AFD25E4-24CC-4ECF-B20B-665EE22DAE3F}"/>
-    <hyperlink ref="G19" r:id="rId20" xr:uid="{9ECF8E95-D511-42AD-88B6-39E1C36E1C2D}"/>
-    <hyperlink ref="G20" r:id="rId21" xr:uid="{30BE2173-5220-4F71-8911-7EC8EC9EC389}"/>
-    <hyperlink ref="G21" r:id="rId22" xr:uid="{9277C6B2-25ED-4FC1-BBF3-BC711088C924}"/>
-    <hyperlink ref="G22" r:id="rId23" xr:uid="{6DDB816C-63A2-4AC7-B76D-040F0E848FFC}"/>
-    <hyperlink ref="G23" r:id="rId24" xr:uid="{CBBE470A-F9B1-43E6-896C-2641D790889D}"/>
-    <hyperlink ref="G24" r:id="rId25" xr:uid="{DAC1516E-76AC-4FA8-965E-74D23C0A3D52}"/>
-    <hyperlink ref="G25" r:id="rId26" xr:uid="{EEADC7E3-C25A-466D-ADEF-00BAA39960C1}"/>
-    <hyperlink ref="G26:G35" r:id="rId27" display="nicky@gmail.com" xr:uid="{629DF51D-9EF6-41F6-A474-6EE8B07A423D}"/>
-    <hyperlink ref="G26" r:id="rId28" xr:uid="{8442B39D-E2A8-45FF-951B-15780C16288F}"/>
-    <hyperlink ref="G27" r:id="rId29" xr:uid="{C1F6E717-A108-4D5A-A9AA-3F6BBAF9F268}"/>
-    <hyperlink ref="G28" r:id="rId30" xr:uid="{A7045693-832F-47E2-AC66-0C992B0F228A}"/>
-    <hyperlink ref="G29" r:id="rId31" xr:uid="{EF26304D-D2C1-4E9C-B337-24D0587A6C5F}"/>
-    <hyperlink ref="G30" r:id="rId32" xr:uid="{C59CE709-E62B-4E9B-8160-ADADB6720D99}"/>
-    <hyperlink ref="G31" r:id="rId33" xr:uid="{7939281D-A0FE-4480-A31B-A63754BEBC47}"/>
-    <hyperlink ref="G32" r:id="rId34" xr:uid="{A0EAD22D-F4C3-48B5-BB05-F2C4E269A106}"/>
-    <hyperlink ref="G33" r:id="rId35" xr:uid="{C9DCFF1E-FB2E-4CAF-8E65-037AF2B1231D}"/>
-    <hyperlink ref="G34" r:id="rId36" xr:uid="{1EDAAFCC-11E9-48B1-AF0B-70F160F22CDF}"/>
-    <hyperlink ref="G35" r:id="rId37" xr:uid="{D607C8C0-2001-4E61-AE08-917785BED424}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{2A918F17-BA7B-4801-8654-5F4C0A9CA528}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{9AC25E57-4924-4438-AF60-CBB5FAACDB9F}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{33FB18DF-3B5D-420B-BD92-B8CA2C642CAD}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{F18A8A4E-AD0C-49AC-8BDF-3F0D1F9D0336}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{B371CF4A-AE97-4FAE-91F9-3C829CCBCF0F}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{34F7A559-0E0E-4966-9B8D-1331243B2B58}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{B3BC76A7-E850-4629-B612-A59A628B8905}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{33498D64-993E-4D4B-850A-19A55631A006}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{D0E58414-B9EF-4D1F-8720-3ACF4BE546E0}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{70743C29-36A4-4F63-B226-48C35E8720A1}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{6CD03AE9-095A-4A4F-9D13-9883C8411075}"/>
+    <hyperlink ref="G13:G26" r:id="rId12" display="nicky@gmail.com" xr:uid="{A811E83E-155E-4CD9-8907-F665059E83E1}"/>
+    <hyperlink ref="G13" r:id="rId13" xr:uid="{738CA36E-B56E-4A8B-A513-2C7847BC0EAF}"/>
+    <hyperlink ref="G14" r:id="rId14" xr:uid="{F521659F-12B6-4155-88E4-FAAB0C273817}"/>
+    <hyperlink ref="G15" r:id="rId15" xr:uid="{F17F8301-C077-424A-A688-35C61DD12706}"/>
+    <hyperlink ref="G16" r:id="rId16" xr:uid="{0BA09007-ED13-4710-97D0-322805FC9CB4}"/>
+    <hyperlink ref="G17" r:id="rId17" xr:uid="{AD078AF6-5DDE-4F9A-9751-2E393A373227}"/>
+    <hyperlink ref="G18" r:id="rId18" xr:uid="{FE12612D-FB8E-42C2-89A5-D79D114A25C4}"/>
+    <hyperlink ref="G19" r:id="rId19" xr:uid="{9AFD25E4-24CC-4ECF-B20B-665EE22DAE3F}"/>
+    <hyperlink ref="G20" r:id="rId20" xr:uid="{9ECF8E95-D511-42AD-88B6-39E1C36E1C2D}"/>
+    <hyperlink ref="G21" r:id="rId21" xr:uid="{30BE2173-5220-4F71-8911-7EC8EC9EC389}"/>
+    <hyperlink ref="G22" r:id="rId22" xr:uid="{9277C6B2-25ED-4FC1-BBF3-BC711088C924}"/>
+    <hyperlink ref="G23" r:id="rId23" xr:uid="{6DDB816C-63A2-4AC7-B76D-040F0E848FFC}"/>
+    <hyperlink ref="G24" r:id="rId24" xr:uid="{CBBE470A-F9B1-43E6-896C-2641D790889D}"/>
+    <hyperlink ref="G25" r:id="rId25" xr:uid="{DAC1516E-76AC-4FA8-965E-74D23C0A3D52}"/>
+    <hyperlink ref="G26" r:id="rId26" xr:uid="{EEADC7E3-C25A-466D-ADEF-00BAA39960C1}"/>
+    <hyperlink ref="G27:G36" r:id="rId27" display="nicky@gmail.com" xr:uid="{629DF51D-9EF6-41F6-A474-6EE8B07A423D}"/>
+    <hyperlink ref="G27" r:id="rId28" xr:uid="{8442B39D-E2A8-45FF-951B-15780C16288F}"/>
+    <hyperlink ref="G28" r:id="rId29" xr:uid="{C1F6E717-A108-4D5A-A9AA-3F6BBAF9F268}"/>
+    <hyperlink ref="G29" r:id="rId30" xr:uid="{A7045693-832F-47E2-AC66-0C992B0F228A}"/>
+    <hyperlink ref="G30" r:id="rId31" xr:uid="{EF26304D-D2C1-4E9C-B337-24D0587A6C5F}"/>
+    <hyperlink ref="G31" r:id="rId32" xr:uid="{C59CE709-E62B-4E9B-8160-ADADB6720D99}"/>
+    <hyperlink ref="G32" r:id="rId33" xr:uid="{7939281D-A0FE-4480-A31B-A63754BEBC47}"/>
+    <hyperlink ref="G33" r:id="rId34" xr:uid="{A0EAD22D-F4C3-48B5-BB05-F2C4E269A106}"/>
+    <hyperlink ref="G34" r:id="rId35" xr:uid="{C9DCFF1E-FB2E-4CAF-8E65-037AF2B1231D}"/>
+    <hyperlink ref="G35" r:id="rId36" xr:uid="{1EDAAFCC-11E9-48B1-AF0B-70F160F22CDF}"/>
+    <hyperlink ref="G36" r:id="rId37" xr:uid="{D607C8C0-2001-4E61-AE08-917785BED424}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId38"/>
